--- a/data/case1/12/Plm1_14.xlsx
+++ b/data/case1/12/Plm1_14.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.052052365863332284</v>
+        <v>-0.07655054299873143</v>
       </c>
       <c r="B1" s="0">
-        <v>0.051855759939400059</v>
+        <v>0.07618794036417853</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.030322783887916316</v>
+        <v>-0.030075889759855201</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.030861263254527316</v>
+        <v>0.028579679357184418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.13379134831505723</v>
+        <v>0.12679624710819937</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.1343425478829765</v>
+        <v>-0.12744829742584685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14965026883622556</v>
+        <v>-0.15654825632249469</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14900120307643405</v>
+        <v>0.1557118895239924</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14300120340129485</v>
+        <v>-0.1497118896854257</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14171486567475888</v>
+        <v>0.1480394558661926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.079978098969717859</v>
+        <v>-0.047159339197012873</v>
       </c>
       <c r="B6" s="0">
-        <v>0.079898432916815754</v>
+        <v>0.047132227089735856</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.095891819848890947</v>
+        <v>-0.027132227290669775</v>
       </c>
       <c r="B7" s="0">
-        <v>0.095348346346760593</v>
+        <v>0.027091804774771688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.075348346749946948</v>
+        <v>-0.019542316813446092</v>
       </c>
       <c r="B8" s="0">
-        <v>0.074851980314998734</v>
+        <v>0.019514960558876027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.045758397109477933</v>
+        <v>-0.01351496072750713</v>
       </c>
       <c r="B9" s="0">
-        <v>0.045605066892290047</v>
+        <v>0.0134990793739167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.039605067243634551</v>
+        <v>-0.0074990795431233437</v>
       </c>
       <c r="B10" s="0">
-        <v>0.039586434133873638</v>
+        <v>0.007499153790355706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051475813507416035</v>
+        <v>-0.0029991539559048874</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051396739030746375</v>
+        <v>0.0029961207627273723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045396739383745555</v>
+        <v>-0.0039552558384010617</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045151970935787489</v>
+        <v>0.0039300925282770294</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03915197129443726</v>
+        <v>0.0020699073022072412</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039085303743064514</v>
+        <v>-0.0020829967881841327</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027085304130191723</v>
+        <v>0.014082996604198428</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027053054792587794</v>
+        <v>-0.014118973423443038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02105305515429734</v>
+        <v>0.020118973254280803</v>
       </c>
       <c r="B15" s="0">
-        <v>0.02102767145722062</v>
+        <v>-0.020177184032145412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.01502767182017406</v>
+        <v>0.026177183863575593</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004496032397174</v>
+        <v>-0.026311219119081297</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009004496396967987</v>
+        <v>-0.0090043760414104668</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999996216807432</v>
+        <v>0.0089999998253640356</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.072178544169872794</v>
+        <v>-0.036112050774026017</v>
       </c>
       <c r="B18" s="0">
-        <v>0.072105956811356009</v>
+        <v>0.036097027029295958</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.06310595715020062</v>
+        <v>-0.027097027196643975</v>
       </c>
       <c r="B19" s="0">
-        <v>0.062565071034807129</v>
+        <v>0.027014086798309744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.053565071380766938</v>
+        <v>-0.018014086967184539</v>
       </c>
       <c r="B20" s="0">
-        <v>0.053453978577632455</v>
+        <v>0.018004324287954176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043549094689368</v>
+        <v>-0.0090043244570736647</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999996521226144</v>
+        <v>0.0089999998307099816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093930085397877505</v>
+        <v>-0.14637592663335042</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093622727181664089</v>
+        <v>0.145464375393761</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084622727521936447</v>
+        <v>-0.08463092724570398</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124500073943231</v>
+        <v>0.084126216311144475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124500566400158</v>
+        <v>-0.042126216564354557</v>
       </c>
       <c r="B24" s="0">
-        <v>0.04199999950490696</v>
+        <v>0.041999999745350181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.05573676703961894</v>
+        <v>-0.094880116835909689</v>
       </c>
       <c r="B25" s="0">
-        <v>0.05566805506659378</v>
+        <v>0.094638038039700945</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.049668055401248523</v>
+        <v>-0.088638038207111691</v>
       </c>
       <c r="B26" s="0">
-        <v>0.049585855268048817</v>
+        <v>0.088327195976688699</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.043585855603693879</v>
+        <v>-0.082327196145012493</v>
       </c>
       <c r="B27" s="0">
-        <v>0.043325161126670508</v>
+        <v>0.081268141329796872</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.037325161466003287</v>
+        <v>-0.075268141501789287</v>
       </c>
       <c r="B28" s="0">
-        <v>0.037161714774685883</v>
+        <v>0.074534202095055235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062513055613727886</v>
+        <v>-0.062534202284279417</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062162726099755261</v>
+        <v>0.062169732103926734</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042162726506011161</v>
+        <v>-0.042169732313822372</v>
       </c>
       <c r="B30" s="0">
-        <v>0.04201918423651696</v>
+        <v>0.042020519429746717</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.02701918462379993</v>
+        <v>-0.027020519629411766</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000866080193475</v>
+        <v>0.027001028082315415</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060008664947872603</v>
+        <v>-0.0060010282968185891</v>
       </c>
       <c r="B32" s="0">
-        <v>0.005999999652043897</v>
+        <v>0.0059999998216886397</v>
       </c>
     </row>
   </sheetData>
